--- a/population2.xlsx
+++ b/population2.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Quoc Gia</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>Dan So</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Fert Rate</t>
+          <t>Ti Le Sinh</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>World Share</t>
+          <t>% Dan So</t>
         </is>
       </c>
     </row>
